--- a/数据整理/stocks/A股/上证主板/601766-中国中车.xlsx
+++ b/数据整理/stocks/A股/上证主板/601766-中国中车.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>167301</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
+          <t>博时中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.39</t>
+          <t>49.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3757</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>515680</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>嘉实中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.05</t>
+          <t>31.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>13.99</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8733</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>515600</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>广发中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>22.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13.80</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>159974</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国中证央企创新驱动ETF</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>99.22</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3078</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>515600</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发中证央企创新驱动ETF</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>99.13</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>515680</t>
+          <t>167301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实中证央企创新驱动ETF</t>
+          <t>方正富邦中证保险主题指数（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>98.98</t>
+          <t>13.58</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>159974</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时中证央企创新驱动ETF</t>
+          <t>富国中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>99.05</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>2.79</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510130</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达上证中盘ETF</t>
+          <t>博时中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>98.51</t>
+          <t>44.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4703</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>510220</t>
+          <t>515680</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证中小盘ETF</t>
+          <t>嘉实中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>98.70</t>
+          <t>28.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9453</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -800,15 +910,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>99.35</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.12</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7220</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515680</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实中证央企创新驱动ETF</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>99.15</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4606</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时中证央企创新驱动ETF</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>159974</t>
+          <t>167301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国中证央企创新驱动ETF</t>
+          <t>方正富邦中证保险主题指数（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2213</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>159974</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>富国中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>16.39</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160638</t>
+          <t>160919</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华中证一带一路主题指数（LOF）</t>
+          <t>大成产业升级股票(LOF)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>160638</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>16.38</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>160919</t>
+          <t>510130</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成产业升级股票(LOF)</t>
+          <t>易方达上证中盘ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>167301</t>
+          <t>167503</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
+          <t>安信中证一带一路主题指数</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>167503</t>
+          <t>510220</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安信中证一带一路主题指数</t>
+          <t>华泰柏瑞上证中小盘ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601766-中国中车.xlsx
+++ b/数据整理/stocks/A股/上证主板/601766-中国中车.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2473</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6188</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>14.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3734</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>14.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601766-中国中车.xlsx
+++ b/数据整理/stocks/A股/上证主板/601766-中国中车.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1904,4 +1905,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3043</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7214</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6455</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5784</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>14.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3621</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2183</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601766-中国中车.xlsx
+++ b/数据整理/stocks/A股/上证主板/601766-中国中车.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2379,4 +2380,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601766-中国中车.xlsx
+++ b/数据整理/stocks/A股/上证主板/601766-中国中车.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2388,7 +2389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2399,17 +2400,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2419,14 +2440,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.32</v>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5715</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2435,14 +2478,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.91</v>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8809</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2451,14 +2516,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.49</v>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6076</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2467,13 +2554,607 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5838</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3421</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601766-中国中车.xlsx
+++ b/数据整理/stocks/A股/上证主板/601766-中国中车.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3053,7 +3054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3064,17 +3065,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3084,14 +3105,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.52</v>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3860</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3100,14 +3143,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.32</v>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8755</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3116,14 +3181,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.91</v>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5179</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3132,14 +3219,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.49</v>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4988</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3148,13 +3257,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601766-中国中车.xlsx
+++ b/数据整理/stocks/A股/上证主板/601766-中国中车.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3528,7 +3529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3539,17 +3540,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3559,14 +3580,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.76</v>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2337</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3575,14 +3618,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.52</v>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1048</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3591,14 +3656,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.32</v>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5146</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3607,14 +3694,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.91</v>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4804</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3623,14 +3732,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.49</v>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2758</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3639,13 +3770,373 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601766-中国中车.xlsx
+++ b/数据整理/stocks/A股/上证主板/601766-中国中车.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>4.14</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>3.76</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>4.52</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>4.32</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>3.91</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>4.49</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.64</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,22 +683,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.26</t>
+          <t>36.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.04</t>
+          <t>98.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2337</t>
+          <t>1.1154</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -699,27 +716,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华中证基建交易型开放式指数证券投资基金</t>
+          <t>银华中证基建ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.99</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.39</t>
+          <t>97.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1048</t>
+          <t>0.8546</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -742,22 +759,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.27</t>
+          <t>14.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.46</t>
+          <t>98.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5146</t>
+          <t>0.4511</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -780,22 +797,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.23</t>
+          <t>14.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.31</t>
+          <t>99.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4804</t>
+          <t>0.4451</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -808,32 +825,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>159635</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>华夏中证基建ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.04</t>
+          <t>99.03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>13.86</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2758</t>
+          <t>0.2655</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>159974</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国中证央企创新驱动ETF</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.81</t>
+          <t>95.01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>13.96</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1621</t>
+          <t>0.2569</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>159619</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>国泰中证基建ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.34</t>
+          <t>98.76</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1404</t>
+          <t>0.2528</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>159974</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>富国中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>99.47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1212</t>
+          <t>0.1491</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>鹏华中证高铁产业指数（LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.34</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>13.85</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0910</t>
+          <t>0.1039</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011243</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>29.67</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0145</t>
+          <t>0.0820</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,74 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011244</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29.67</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0444</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015678</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1140,26 +1195,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>47.96</t>
+          <t>41.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.42</t>
+          <t>98.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3860</t>
+          <t>1.2337</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1178,26 +1233,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.41</t>
+          <t>14.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.55</t>
+          <t>98.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8755</t>
+          <t>1.1048</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1206,36 +1261,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515680</t>
+          <t>515600</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实中证央企创新驱动ETF</t>
+          <t>广发中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.86</t>
+          <t>17.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.22</t>
+          <t>98.46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5179</t>
+          <t>0.5146</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1244,36 +1299,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515600</t>
+          <t>515680</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发中证央企创新驱动ETF</t>
+          <t>嘉实中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17.26</t>
+          <t>16.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.02</t>
+          <t>98.31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4988</t>
+          <t>0.4804</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1282,36 +1337,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159974</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国中证央企创新驱动ETF</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.51</t>
+          <t>95.04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>13.86</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1552</t>
+          <t>0.2758</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1320,36 +1375,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>159974</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>富国中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>98.81</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1145</t>
+          <t>0.1621</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1358,36 +1413,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>160638</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华中证一带一路主题指数（LOF）</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>88.34</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0968</t>
+          <t>0.1404</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1396,36 +1451,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011243</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23.04</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>13.77</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0597</t>
+          <t>0.1212</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1434,36 +1489,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>167503</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>安信中证一带一路主题指数</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>88.34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0299</t>
+          <t>0.0910</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1472,36 +1527,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006478</t>
+          <t>011243</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长盛多因子策略优选股票</t>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>84.41</t>
+          <t>29.67</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0239</t>
+          <t>0.0145</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1525,21 +1580,21 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>23.04</t>
+          <t>29.67</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1548,6 +1603,480 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3860</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8755</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5179</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4988</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2211,7 +2740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2685,7 +3214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3311,7 +3840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3823,7 +4352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601766-中国中车.xlsx
+++ b/数据整理/stocks/A股/上证主板/601766-中国中车.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>4.03</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>4.14</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>3.76</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>4.52</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>4.32</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>3.91</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>4.49</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.64</v>
       </c>
     </row>
@@ -616,7 +633,1183 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3757</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8733</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3078</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1461</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4729</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4657</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成产业升级股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2380</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>850088</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海通量化价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015678</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>850004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海通量化价值精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>850099</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海通量化价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1121,480 +2314,6 @@
       </c>
       <c r="H13" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515900</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>41.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2337</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>516950</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华中证基建交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.99</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1048</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>515600</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.27</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>98.46</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5146</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>515680</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>16.23</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.31</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4804</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>13.86</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2758</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>159974</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.81</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1621</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004496</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.34</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1404</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>13.77</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1212</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.34</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0910</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011243</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>29.67</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0145</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011244</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>29.67</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1669,26 +2388,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>47.96</t>
+          <t>41.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.42</t>
+          <t>98.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3860</t>
+          <t>1.2337</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1707,26 +2426,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.41</t>
+          <t>14.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.55</t>
+          <t>98.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8755</t>
+          <t>1.1048</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1735,36 +2454,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515680</t>
+          <t>515600</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实中证央企创新驱动ETF</t>
+          <t>广发中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.86</t>
+          <t>17.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.22</t>
+          <t>98.46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5179</t>
+          <t>0.5146</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1773,36 +2492,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515600</t>
+          <t>515680</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发中证央企创新驱动ETF</t>
+          <t>嘉实中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17.26</t>
+          <t>16.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.02</t>
+          <t>98.31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4988</t>
+          <t>0.4804</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1811,36 +2530,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159974</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国中证央企创新驱动ETF</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.51</t>
+          <t>95.04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>13.86</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1552</t>
+          <t>0.2758</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1849,36 +2568,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>159974</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>富国中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>98.81</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1145</t>
+          <t>0.1621</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1887,36 +2606,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>160638</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华中证一带一路主题指数（LOF）</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>88.34</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0968</t>
+          <t>0.1404</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1925,36 +2644,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011243</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23.04</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>13.77</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0597</t>
+          <t>0.1212</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1963,36 +2682,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>167503</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>安信中证一带一路主题指数</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>88.34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0299</t>
+          <t>0.0910</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -2001,36 +2720,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006478</t>
+          <t>011243</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长盛多因子策略优选股票</t>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>84.41</t>
+          <t>29.67</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0239</t>
+          <t>0.0145</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2054,21 +2773,21 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>23.04</t>
+          <t>29.67</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2077,6 +2796,480 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3860</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8755</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5179</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4988</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2740,7 +3933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3214,7 +4407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3840,7 +5033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4350,326 +5543,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515900</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>49.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.3757</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515680</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>31.64</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8733</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>515600</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>22.61</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6014</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>13.99</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3078</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>13.80</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1877</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>167301</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>13.58</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1575</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>159974</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>99.22</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1342</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>